--- a/Final_Project/Material_for_Documentation/Losses for different types of Cycle GAN.xlsx
+++ b/Final_Project/Material_for_Documentation/Losses for different types of Cycle GAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Desktop\Cognitive Computing Studium\Courses first semester\Implementing ANNs with TensorFlow\IANN_group30\Final_Project\Sources_And_Material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7febc520ade5fca9/Master_Cognitive_Computing/1_Semester/IANN_group30/Final_project/Material_for_Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF812E23-ACB7-4FBB-B779-6756D1A3851D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -588,7 +588,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -623,7 +623,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2084052640"/>
@@ -715,7 +715,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -753,7 +753,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2084051392"/>
@@ -804,7 +804,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -838,7 +838,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -957,7 +957,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1356,7 +1356,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1391,7 +1391,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1998409856"/>
@@ -1484,7 +1484,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1519,7 +1519,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1998402368"/>
@@ -1571,7 +1571,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1605,7 +1605,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3104,21 +3104,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>300</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0.50535715000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>600</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>0.49975023000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>900</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0.44366702000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>1200</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>0.43339047000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>1500</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>0.41711150000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>1800</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0.40995802999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>2100</v>
       </c>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>2400</v>
       </c>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>2700</v>
       </c>

--- a/Final_Project/Material_for_Documentation/Losses for different types of Cycle GAN.xlsx
+++ b/Final_Project/Material_for_Documentation/Losses for different types of Cycle GAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7febc520ade5fca9/Master_Cognitive_Computing/1_Semester/IANN_group30/Final_project/Material_for_Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF812E23-ACB7-4FBB-B779-6756D1A3851D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{FF812E23-ACB7-4FBB-B779-6756D1A3851D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A38DB5B8-41D4-403D-B9A9-212F289E6061}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
               <a:rPr lang="en-GB" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>for different types of Cycle GAN</a:t>
+              <a:t>for different types of CycleGAN</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1600" b="1">
               <a:solidFill>
@@ -925,7 +925,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> GAN</a:t>
+              <a:t>GAN</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1600" b="1">
               <a:solidFill>
@@ -935,6 +935,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16308314550214639"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2739,9 +2747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2771,13 +2779,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>167639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3104,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
